--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>类型</t>
   </si>
@@ -52,7 +52,139 @@
     <t>传教</t>
   </si>
   <si>
-    <t>Charactor</t>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>AT_N002</t>
+  </si>
+  <si>
+    <t>创作</t>
+  </si>
+  <si>
+    <t>AT_N003</t>
+  </si>
+  <si>
+    <t>盈利</t>
+  </si>
+  <si>
+    <t>AT_N004</t>
+  </si>
+  <si>
+    <t>约稿</t>
+  </si>
+  <si>
+    <t>AT_N005</t>
+  </si>
+  <si>
+    <t>挂裱</t>
+  </si>
+  <si>
+    <t>AT_N006</t>
+  </si>
+  <si>
+    <t>互撕</t>
+  </si>
+  <si>
+    <t>AT_N007</t>
+  </si>
+  <si>
+    <t>白嫖</t>
+  </si>
+  <si>
+    <t>AT_N008</t>
+  </si>
+  <si>
+    <t>造谣</t>
+  </si>
+  <si>
+    <t>AT_N009</t>
+  </si>
+  <si>
+    <t>煽风点火</t>
+  </si>
+  <si>
+    <t>AT_N010</t>
+  </si>
+  <si>
+    <t>事先科普</t>
+  </si>
+  <si>
+    <t>AT_N011</t>
+  </si>
+  <si>
+    <t>商业互吹</t>
+  </si>
+  <si>
+    <t>AT_N012</t>
+  </si>
+  <si>
+    <t>出警</t>
+  </si>
+  <si>
+    <t>AT_N013</t>
+  </si>
+  <si>
+    <t>众筹</t>
+  </si>
+  <si>
+    <t>AT_N014</t>
+  </si>
+  <si>
+    <t>火星</t>
+  </si>
+  <si>
+    <t>AT_N015</t>
+  </si>
+  <si>
+    <t>传播模因</t>
+  </si>
+  <si>
+    <t>AT_N016</t>
+  </si>
+  <si>
+    <t>结交同好</t>
+  </si>
+  <si>
+    <t>AT_N017</t>
+  </si>
+  <si>
+    <t>聚餐</t>
+  </si>
+  <si>
+    <t>AT_N018</t>
+  </si>
+  <si>
+    <t>线下交流</t>
+  </si>
+  <si>
+    <t>AT_N019</t>
+  </si>
+  <si>
+    <t>走漏风声</t>
+  </si>
+  <si>
+    <t>AT_N020</t>
+  </si>
+  <si>
+    <t>墨菲定理</t>
+  </si>
+  <si>
+    <t>AT_N021</t>
+  </si>
+  <si>
+    <t>联机对战</t>
+  </si>
+  <si>
+    <t>AT_N022</t>
+  </si>
+  <si>
+    <t>消息灵通</t>
+  </si>
+  <si>
+    <t>AT_N023</t>
+  </si>
+  <si>
+    <t>人类的本质</t>
   </si>
 </sst>
 </file>
@@ -61,9 +193,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,20 +215,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,24 +235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,9 +250,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,39 +296,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,187 +359,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,15 +556,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -440,16 +563,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,30 +593,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -518,6 +626,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -526,10 +658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,133 +670,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,13 +1152,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E4"/>
+  <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" t="s">
@@ -1081,6 +1216,314 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -7,14 +7,15 @@
     <workbookView windowWidth="26385" windowHeight="13470"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Card" sheetId="1" r:id="rId1"/>
+    <sheet name="Deck" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="167">
   <si>
     <t>类型</t>
   </si>
@@ -25,10 +26,13 @@
     <t>名字</t>
   </si>
   <si>
+    <t>#Test模式数目</t>
+  </si>
+  <si>
     <t>_t</t>
   </si>
   <si>
-    <t>Id</t>
+    <t>ConfigId</t>
   </si>
   <si>
     <t>Name</t>
@@ -73,6 +77,9 @@
     <t>约稿</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>AT_N005</t>
   </si>
   <si>
@@ -185,6 +192,330 @@
   </si>
   <si>
     <t>人类的本质</t>
+  </si>
+  <si>
+    <t>CR_IP001</t>
+  </si>
+  <si>
+    <t>社团主催</t>
+  </si>
+  <si>
+    <t>Charactor</t>
+  </si>
+  <si>
+    <t>CR_IP002</t>
+  </si>
+  <si>
+    <t>个人创作者</t>
+  </si>
+  <si>
+    <t>CR_IP003</t>
+  </si>
+  <si>
+    <t>投机主义者</t>
+  </si>
+  <si>
+    <t>CR_IP004</t>
+  </si>
+  <si>
+    <t>社交爱好者</t>
+  </si>
+  <si>
+    <t>CR_IP005</t>
+  </si>
+  <si>
+    <t>角色扮演家</t>
+  </si>
+  <si>
+    <t>CR_IP006</t>
+  </si>
+  <si>
+    <t>白嫖党</t>
+  </si>
+  <si>
+    <t>CR_IM001</t>
+  </si>
+  <si>
+    <t>冷门爱好者</t>
+  </si>
+  <si>
+    <t>CR_IM002</t>
+  </si>
+  <si>
+    <t>精英主义者</t>
+  </si>
+  <si>
+    <t>CR_IM003</t>
+  </si>
+  <si>
+    <t>桃园民</t>
+  </si>
+  <si>
+    <t>CR_IM004</t>
+  </si>
+  <si>
+    <t>单推厨</t>
+  </si>
+  <si>
+    <t>CR_IM005</t>
+  </si>
+  <si>
+    <t>考据党</t>
+  </si>
+  <si>
+    <t>CR_IM006</t>
+  </si>
+  <si>
+    <t>原作玩家</t>
+  </si>
+  <si>
+    <t>CR_CP001</t>
+  </si>
+  <si>
+    <t>传教爱好者</t>
+  </si>
+  <si>
+    <t>CR_CP002</t>
+  </si>
+  <si>
+    <t>社群意见领袖</t>
+  </si>
+  <si>
+    <t>CR_CP003</t>
+  </si>
+  <si>
+    <t>地区王</t>
+  </si>
+  <si>
+    <t>CR_CP004</t>
+  </si>
+  <si>
+    <t>激进集体主义者</t>
+  </si>
+  <si>
+    <t>CR_CP005</t>
+  </si>
+  <si>
+    <t>活动主办方</t>
+  </si>
+  <si>
+    <t>CR_CP006</t>
+  </si>
+  <si>
+    <t>平台运营者</t>
+  </si>
+  <si>
+    <t>CR_CM001</t>
+  </si>
+  <si>
+    <t>东方警察</t>
+  </si>
+  <si>
+    <t>CR_CM002</t>
+  </si>
+  <si>
+    <t>反权威主义者</t>
+  </si>
+  <si>
+    <t>CR_CM003</t>
+  </si>
+  <si>
+    <t>CR_CM004</t>
+  </si>
+  <si>
+    <t>悲观预言家</t>
+  </si>
+  <si>
+    <t>CR_CM005</t>
+  </si>
+  <si>
+    <t>前婆罗门</t>
+  </si>
+  <si>
+    <t>CR_CM006</t>
+  </si>
+  <si>
+    <t>盈利抵制者</t>
+  </si>
+  <si>
+    <t>G_001</t>
+  </si>
+  <si>
+    <t>旧作</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>G_002</t>
+  </si>
+  <si>
+    <t>红魔乡</t>
+  </si>
+  <si>
+    <t>G_003</t>
+  </si>
+  <si>
+    <t>妖妖梦</t>
+  </si>
+  <si>
+    <t>G_004</t>
+  </si>
+  <si>
+    <t>永夜抄</t>
+  </si>
+  <si>
+    <t>G_005</t>
+  </si>
+  <si>
+    <t>花映塚</t>
+  </si>
+  <si>
+    <t>G_006</t>
+  </si>
+  <si>
+    <t>文花帖</t>
+  </si>
+  <si>
+    <t>G_007</t>
+  </si>
+  <si>
+    <t>风神录</t>
+  </si>
+  <si>
+    <t>G_008</t>
+  </si>
+  <si>
+    <t>地灵殿</t>
+  </si>
+  <si>
+    <t>G_009</t>
+  </si>
+  <si>
+    <t>星莲船</t>
+  </si>
+  <si>
+    <t>G_010</t>
+  </si>
+  <si>
+    <t>文花帖DS</t>
+  </si>
+  <si>
+    <t>G_011</t>
+  </si>
+  <si>
+    <t>大战争</t>
+  </si>
+  <si>
+    <t>G_012</t>
+  </si>
+  <si>
+    <t>神灵庙</t>
+  </si>
+  <si>
+    <t>G_013</t>
+  </si>
+  <si>
+    <t>辉针城</t>
+  </si>
+  <si>
+    <t>G_014</t>
+  </si>
+  <si>
+    <t>天邪鬼</t>
+  </si>
+  <si>
+    <t>G_015</t>
+  </si>
+  <si>
+    <t>绀珠传</t>
+  </si>
+  <si>
+    <t>G_016</t>
+  </si>
+  <si>
+    <t>天空璋</t>
+  </si>
+  <si>
+    <t>G_017</t>
+  </si>
+  <si>
+    <t>噩梦日记</t>
+  </si>
+  <si>
+    <t>G_F001</t>
+  </si>
+  <si>
+    <t>萃梦想</t>
+  </si>
+  <si>
+    <t>G_F002</t>
+  </si>
+  <si>
+    <t>绯想天</t>
+  </si>
+  <si>
+    <t>G_F003</t>
+  </si>
+  <si>
+    <t>非想天则</t>
+  </si>
+  <si>
+    <t>G_F004</t>
+  </si>
+  <si>
+    <t>心绮楼</t>
+  </si>
+  <si>
+    <t>G_F005</t>
+  </si>
+  <si>
+    <t>深秘录</t>
+  </si>
+  <si>
+    <t>G_F006</t>
+  </si>
+  <si>
+    <t>凭依华</t>
+  </si>
+  <si>
+    <t>EV_E001</t>
+  </si>
+  <si>
+    <t>人气投票</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>EV_E002</t>
+  </si>
+  <si>
+    <t>全国性活动</t>
+  </si>
+  <si>
+    <t>游戏模式</t>
+  </si>
+  <si>
+    <t>卡类</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>CardTypes</t>
+  </si>
+  <si>
+    <t>CardNumbers</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -192,10 +523,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -213,23 +544,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,6 +567,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -250,23 +590,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,9 +622,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,30 +675,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,7 +690,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,175 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,30 +881,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -607,11 +914,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,23 +967,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,145 +989,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,18 +1483,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E26"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1176,355 +1507,1431 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28">
+        <v>102</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31">
+        <v>105</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
+        <v>107</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35">
+        <v>109</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41">
+        <v>115</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42">
+        <v>116</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43">
+        <v>117</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46">
+        <v>120</v>
+      </c>
+      <c r="D46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>121</v>
+      </c>
+      <c r="E47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48">
+        <v>122</v>
+      </c>
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49">
+        <v>123</v>
+      </c>
+      <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50">
+        <v>124</v>
+      </c>
+      <c r="D50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51">
+        <v>125</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52">
+        <v>126</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53">
+        <v>127</v>
+      </c>
+      <c r="D53" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54">
+        <v>128</v>
+      </c>
+      <c r="D54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55">
+        <v>129</v>
+      </c>
+      <c r="D55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56">
+        <v>130</v>
+      </c>
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57">
+        <v>131</v>
+      </c>
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58">
+        <v>132</v>
+      </c>
+      <c r="D58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59">
+        <v>133</v>
+      </c>
+      <c r="D59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61">
+        <v>135</v>
+      </c>
+      <c r="D61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62">
+        <v>136</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63">
+        <v>137</v>
+      </c>
+      <c r="D63" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64">
+        <v>138</v>
+      </c>
+      <c r="D64" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65">
+        <v>139</v>
+      </c>
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67">
+        <v>141</v>
+      </c>
+      <c r="D67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68">
+        <v>142</v>
+      </c>
+      <c r="D68" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" t="s">
+        <v>109</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69">
+        <v>143</v>
+      </c>
+      <c r="D69" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" t="s">
+        <v>109</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70">
+        <v>144</v>
+      </c>
+      <c r="D70" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" t="s">
+        <v>109</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71">
+        <v>145</v>
+      </c>
+      <c r="D71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72">
+        <v>146</v>
+      </c>
+      <c r="D72" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73">
+        <v>147</v>
+      </c>
+      <c r="D73" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74">
+        <v>148</v>
+      </c>
+      <c r="D74" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" t="s">
+        <v>156</v>
+      </c>
+      <c r="F74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75">
+        <v>149</v>
+      </c>
+      <c r="D75" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1532,4 +2939,82 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="str">
+        <f>_xlfn.TEXTJOIN(",",1,Card!C4:C100)</f>
+        <v>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146,147,148,149</v>
+      </c>
+      <c r="E4" t="str">
+        <f>_xlfn.TEXTJOIN(",",1,Card!F4:F100)</f>
+        <v>10,10,10,10,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,10,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,20,20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
     <sheet name="Deck" sheetId="2" r:id="rId2"/>
+    <sheet name="Skill" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="159">
   <si>
     <t>类型</t>
   </si>
@@ -41,6 +42,12 @@
     <t>CardType</t>
   </si>
   <si>
+    <t>SkillIds</t>
+  </si>
+  <si>
+    <t>camp</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -50,6 +57,15 @@
     <t>ZMDFQ.CardTypeEnum</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>ZMDFQ.Camp</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>AT_N001</t>
   </si>
   <si>
@@ -77,9 +93,6 @@
     <t>约稿</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>AT_N005</t>
   </si>
   <si>
@@ -194,7 +207,13 @@
     <t>人类的本质</t>
   </si>
   <si>
-    <t>CR_IP001</t>
+    <t>英雄技能</t>
+  </si>
+  <si>
+    <t>阵营</t>
+  </si>
+  <si>
+    <t>HeroCard</t>
   </si>
   <si>
     <t>社团主催</t>
@@ -203,138 +222,84 @@
     <t>Charactor</t>
   </si>
   <si>
-    <t>CR_IP002</t>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>indivMajor</t>
   </si>
   <si>
     <t>个人创作者</t>
   </si>
   <si>
-    <t>CR_IP003</t>
-  </si>
-  <si>
     <t>投机主义者</t>
   </si>
   <si>
-    <t>CR_IP004</t>
-  </si>
-  <si>
     <t>社交爱好者</t>
   </si>
   <si>
-    <t>CR_IP005</t>
-  </si>
-  <si>
     <t>角色扮演家</t>
   </si>
   <si>
-    <t>CR_IP006</t>
-  </si>
-  <si>
     <t>白嫖党</t>
   </si>
   <si>
-    <t>CR_IM001</t>
-  </si>
-  <si>
     <t>冷门爱好者</t>
   </si>
   <si>
-    <t>CR_IM002</t>
+    <t>indivMinor</t>
   </si>
   <si>
     <t>精英主义者</t>
   </si>
   <si>
-    <t>CR_IM003</t>
-  </si>
-  <si>
     <t>桃园民</t>
   </si>
   <si>
-    <t>CR_IM004</t>
-  </si>
-  <si>
     <t>单推厨</t>
   </si>
   <si>
-    <t>CR_IM005</t>
-  </si>
-  <si>
     <t>考据党</t>
   </si>
   <si>
-    <t>CR_IM006</t>
-  </si>
-  <si>
     <t>原作玩家</t>
   </si>
   <si>
-    <t>CR_CP001</t>
-  </si>
-  <si>
     <t>传教爱好者</t>
   </si>
   <si>
-    <t>CR_CP002</t>
+    <t>commuMajor</t>
   </si>
   <si>
     <t>社群意见领袖</t>
   </si>
   <si>
-    <t>CR_CP003</t>
-  </si>
-  <si>
     <t>地区王</t>
   </si>
   <si>
-    <t>CR_CP004</t>
-  </si>
-  <si>
     <t>激进集体主义者</t>
   </si>
   <si>
-    <t>CR_CP005</t>
-  </si>
-  <si>
     <t>活动主办方</t>
   </si>
   <si>
-    <t>CR_CP006</t>
-  </si>
-  <si>
     <t>平台运营者</t>
   </si>
   <si>
-    <t>CR_CM001</t>
-  </si>
-  <si>
     <t>东方警察</t>
   </si>
   <si>
-    <t>CR_CM002</t>
+    <t>commuMinor</t>
   </si>
   <si>
     <t>反权威主义者</t>
   </si>
   <si>
-    <t>CR_CM003</t>
-  </si>
-  <si>
-    <t>CR_CM004</t>
-  </si>
-  <si>
     <t>悲观预言家</t>
   </si>
   <si>
-    <t>CR_CM005</t>
-  </si>
-  <si>
     <t>前婆罗门</t>
   </si>
   <si>
-    <t>CR_CM006</t>
-  </si>
-  <si>
     <t>盈利抵制者</t>
   </si>
   <si>
@@ -512,10 +477,22 @@
     <t>CardNumbers</t>
   </si>
   <si>
-    <t>int[]</t>
-  </si>
-  <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>CR_CP001_SK1</t>
+  </si>
+  <si>
+    <t>CR_IP001_SK1</t>
+  </si>
+  <si>
+    <t>合同招募</t>
+  </si>
+  <si>
+    <t>CR_IP001_SK2</t>
+  </si>
+  <si>
+    <t>社团运营</t>
   </si>
 </sst>
 </file>
@@ -524,9 +501,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -538,21 +515,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -560,7 +522,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,24 +537,29 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,29 +590,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,6 +630,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,20 +657,133 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -696,19 +793,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,156 +860,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,6 +870,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -899,41 +912,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,11 +947,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,151 +978,172 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1483,15 +1493,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -1511,7 +1523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1524,50 +1536,51 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1575,16 +1588,16 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1592,93 +1605,90 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9">
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1686,19 +1696,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1706,19 +1716,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1726,76 +1736,76 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15">
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15">
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
         <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1803,19 +1813,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1823,19 +1833,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1843,19 +1853,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1863,19 +1873,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
         <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1883,76 +1893,76 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23">
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
         <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1960,581 +1970,636 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27">
         <v>23</v>
       </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27">
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29">
         <v>101</v>
       </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27">
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28">
+      <c r="G29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30">
         <v>102</v>
       </c>
-      <c r="D28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29">
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
         <v>103</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30">
+      <c r="C32">
         <v>104</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
         <v>67</v>
       </c>
-      <c r="E30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33">
         <v>105</v>
-      </c>
-      <c r="D31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32">
-        <v>106</v>
-      </c>
-      <c r="D32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33">
-        <v>107</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34">
+      <c r="H35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36">
         <v>108</v>
       </c>
-      <c r="D34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>76</v>
       </c>
-      <c r="C35">
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37">
         <v>109</v>
       </c>
-      <c r="D35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D37" t="s">
         <v>78</v>
       </c>
-      <c r="C36">
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38">
         <v>110</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>79</v>
       </c>
-      <c r="E36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
         <v>80</v>
       </c>
-      <c r="C37">
-        <v>111</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
         <v>81</v>
       </c>
-      <c r="E37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41">
+        <v>113</v>
+      </c>
+      <c r="D41" t="s">
         <v>82</v>
       </c>
-      <c r="C38">
-        <v>112</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
         <v>83</v>
       </c>
-      <c r="E38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" t="s">
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
         <v>84</v>
       </c>
-      <c r="C39">
-        <v>113</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43">
+        <v>115</v>
+      </c>
+      <c r="D43" t="s">
         <v>85</v>
       </c>
-      <c r="E39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39">
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44">
+        <v>116</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46">
+        <v>118</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47">
+        <v>119</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40">
-        <v>114</v>
-      </c>
-      <c r="D40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41">
-        <v>115</v>
-      </c>
-      <c r="D41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="H47" t="s">
         <v>90</v>
       </c>
-      <c r="C42">
-        <v>116</v>
-      </c>
-      <c r="D42" t="s">
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48">
+        <v>120</v>
+      </c>
+      <c r="D48" t="s">
         <v>91</v>
       </c>
-      <c r="E42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49">
+        <v>121</v>
+      </c>
+      <c r="E49" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
         <v>92</v>
       </c>
-      <c r="C43">
-        <v>117</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51">
+        <v>123</v>
+      </c>
+      <c r="D51" t="s">
         <v>93</v>
       </c>
-      <c r="E43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="E51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>124</v>
+      </c>
+      <c r="D52" t="s">
         <v>94</v>
       </c>
-      <c r="C44">
-        <v>118</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:7">
+      <c r="A53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" t="s">
         <v>95</v>
       </c>
-      <c r="E44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" t="s">
+      <c r="C54">
+        <v>125</v>
+      </c>
+      <c r="D54" t="s">
         <v>96</v>
       </c>
-      <c r="C45">
-        <v>119</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E54" t="s">
         <v>97</v>
       </c>
-      <c r="E45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45">
+      <c r="F54">
         <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46">
-        <v>120</v>
-      </c>
-      <c r="D46" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47">
-        <v>121</v>
-      </c>
-      <c r="E47" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48">
-        <v>122</v>
-      </c>
-      <c r="D48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49">
-        <v>123</v>
-      </c>
-      <c r="D49" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50">
-        <v>124</v>
-      </c>
-      <c r="D50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51">
-        <v>125</v>
-      </c>
-      <c r="D51" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52">
-        <v>126</v>
-      </c>
-      <c r="D52" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" t="s">
-        <v>109</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53">
-        <v>127</v>
-      </c>
-      <c r="D53" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54">
-        <v>128</v>
-      </c>
-      <c r="D54" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C55">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2542,19 +2607,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C56">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2562,19 +2627,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C57">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2582,19 +2647,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C58">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2602,19 +2667,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C59">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2622,19 +2687,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C60">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2642,19 +2707,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C61">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2662,19 +2727,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C62">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2682,19 +2747,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C63">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2702,19 +2767,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C64">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2722,19 +2787,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65">
         <v>136</v>
       </c>
-      <c r="C65">
-        <v>139</v>
-      </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2742,19 +2807,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C66">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E66" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2762,19 +2827,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C67">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2782,19 +2847,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C68">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E68" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2802,19 +2867,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C69">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E69" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2822,19 +2887,19 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C70">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E70" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2842,19 +2907,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C71">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2862,19 +2927,19 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C72">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E72" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2882,55 +2947,115 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73">
+        <v>144</v>
+      </c>
+      <c r="D73" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74">
+        <v>145</v>
+      </c>
+      <c r="D74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75">
+        <v>146</v>
+      </c>
+      <c r="D75" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" t="s">
+        <v>97</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76">
+        <v>147</v>
+      </c>
+      <c r="D76" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77">
+        <v>148</v>
+      </c>
+      <c r="D77" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77">
         <v>20</v>
       </c>
-      <c r="B73" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73">
-        <v>147</v>
-      </c>
-      <c r="D73" t="s">
-        <v>153</v>
-      </c>
-      <c r="E73" t="s">
-        <v>109</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74">
-        <v>148</v>
-      </c>
-      <c r="D74" t="s">
-        <v>155</v>
-      </c>
-      <c r="E74" t="s">
-        <v>156</v>
-      </c>
-      <c r="F74">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="B75" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75">
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78">
         <v>149</v>
       </c>
-      <c r="D75" t="s">
-        <v>158</v>
-      </c>
-      <c r="E75" t="s">
-        <v>156</v>
-      </c>
-      <c r="F75">
+      <c r="D78" t="s">
+        <v>146</v>
+      </c>
+      <c r="E78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78">
         <v>20</v>
       </c>
     </row>
@@ -2957,60 +3082,146 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="str">
-        <f>_xlfn.TEXTJOIN(",",1,Card!C4:C100)</f>
+        <f>_xlfn.TEXTJOIN(",",1,Card!C5:C103)</f>
         <v>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146,147,148,149</v>
       </c>
       <c r="E4" t="str">
-        <f>_xlfn.TEXTJOIN(",",1,Card!F4:F100)</f>
+        <f>_xlfn.TEXTJOIN(",",1,Card!F5:F103)</f>
         <v>10,10,10,10,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,10,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,20,20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="167">
   <si>
     <t>类型</t>
   </si>
@@ -246,6 +246,9 @@
     <t>冷门爱好者</t>
   </si>
   <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
     <t>indivMinor</t>
   </si>
   <si>
@@ -493,6 +496,27 @@
   </si>
   <si>
     <t>社团运营</t>
+  </si>
+  <si>
+    <t>CR_IM001_SK1</t>
+  </si>
+  <si>
+    <t>自我产粮</t>
+  </si>
+  <si>
+    <t>CR_IM001_SK2</t>
+  </si>
+  <si>
+    <t>坚定不移</t>
+  </si>
+  <si>
+    <t>CR_IM001_SK3</t>
+  </si>
+  <si>
+    <t>小众至高</t>
+  </si>
+  <si>
+    <t>CR_CM001_SK1</t>
   </si>
 </sst>
 </file>
@@ -500,10 +524,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -552,14 +576,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,6 +611,43 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -590,7 +668,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,60 +681,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -703,7 +727,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +769,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,103 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,31 +883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,45 +921,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -962,6 +947,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -970,6 +970,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -978,10 +1002,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,133 +1014,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1495,8 +1519,8 @@
   <sheetPr/>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2173,8 +2197,11 @@
       <c r="F35">
         <v>10</v>
       </c>
+      <c r="G35" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="H35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2188,7 +2215,7 @@
         <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
         <v>67</v>
@@ -2197,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2211,7 +2238,7 @@
         <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
         <v>67</v>
@@ -2220,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2234,7 +2261,7 @@
         <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
         <v>67</v>
@@ -2243,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2257,7 +2284,7 @@
         <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
         <v>67</v>
@@ -2266,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2280,7 +2307,7 @@
         <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" t="s">
         <v>67</v>
@@ -2289,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:8">
@@ -2300,7 +2327,7 @@
         <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
         <v>67</v>
@@ -2312,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2326,7 +2353,7 @@
         <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
         <v>67</v>
@@ -2335,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2349,7 +2376,7 @@
         <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
         <v>67</v>
@@ -2358,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2372,7 +2399,7 @@
         <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
         <v>67</v>
@@ -2381,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2395,7 +2422,7 @@
         <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
         <v>67</v>
@@ -2404,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2418,7 +2445,7 @@
         <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
         <v>67</v>
@@ -2427,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -2438,7 +2465,7 @@
         <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
         <v>67</v>
@@ -2446,8 +2473,11 @@
       <c r="F47">
         <v>10</v>
       </c>
+      <c r="G47" s="4">
+        <v>7</v>
+      </c>
       <c r="H47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2461,7 +2491,7 @@
         <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" t="s">
         <v>67</v>
@@ -2470,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2490,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2504,7 +2534,7 @@
         <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
         <v>67</v>
@@ -2513,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2527,7 +2557,7 @@
         <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" t="s">
         <v>67</v>
@@ -2536,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2550,7 +2580,7 @@
         <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
         <v>67</v>
@@ -2559,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1" spans="1:7">
@@ -2570,16 +2600,16 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C54">
         <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F54">
         <v>10</v>
@@ -2590,16 +2620,16 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C55">
         <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2610,16 +2640,16 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C56">
         <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2630,16 +2660,16 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C57">
         <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2650,16 +2680,16 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58">
         <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2670,16 +2700,16 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C59">
         <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2690,16 +2720,16 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C60">
         <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2710,16 +2740,16 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61">
         <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2730,16 +2760,16 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C62">
         <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2750,16 +2780,16 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C63">
         <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2770,16 +2800,16 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C64">
         <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2790,16 +2820,16 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65">
         <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2810,16 +2840,16 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C66">
         <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2830,16 +2860,16 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C67">
         <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2850,16 +2880,16 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C68">
         <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2870,16 +2900,16 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C69">
         <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2890,16 +2920,16 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C70">
         <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2910,16 +2940,16 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C71">
         <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2930,16 +2960,16 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C72">
         <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2950,16 +2980,16 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C73">
         <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2970,16 +3000,16 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C74">
         <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2990,16 +3020,16 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C75">
         <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3010,16 +3040,16 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C76">
         <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3027,16 +3057,16 @@
     </row>
     <row r="77" spans="2:6">
       <c r="B77" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C77">
         <v>148</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F77">
         <v>20</v>
@@ -3044,16 +3074,16 @@
     </row>
     <row r="78" spans="2:6">
       <c r="B78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C78">
         <v>149</v>
       </c>
       <c r="D78" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E78" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F78">
         <v>20</v>
@@ -3082,30 +3112,30 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -3124,7 +3154,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3147,13 +3177,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D6"/>
+  <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="20.125" customWidth="1"/>
   </cols>
@@ -3193,7 +3223,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3204,24 +3234,68 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\TouhouTrek\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E36DB0-0110-4CC4-AA18-45AACD0BBA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="26385" windowHeight="13470"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
     <sheet name="Deck" sheetId="2" r:id="rId2"/>
     <sheet name="Skill" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -60,9 +74,6 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>ZMDFQ.Camp</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -517,19 +528,17 @@
   </si>
   <si>
     <t>CR_CM001_SK1</t>
+  </si>
+  <si>
+    <t>ZMDFQ.CampEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,151 +547,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,188 +587,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -896,255 +596,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1169,62 +627,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1511,26 +928,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1567,7 +984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1583,754 +1000,754 @@
       <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="H3" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
-        <v>16</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
-        <v>27</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" t="s">
-        <v>39</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>13</v>
       </c>
       <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="C18">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
         <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
       </c>
       <c r="C19">
         <v>15</v>
       </c>
       <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
       <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
         <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
         <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
       </c>
       <c r="C22">
         <v>18</v>
       </c>
       <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
         <v>52</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
       </c>
       <c r="C23">
         <v>19</v>
       </c>
       <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>54</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" t="s">
-        <v>55</v>
       </c>
       <c r="C24">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>21</v>
       </c>
       <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
         <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
       </c>
       <c r="C26">
         <v>22</v>
       </c>
       <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
         <v>60</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
       </c>
       <c r="C27">
         <v>23</v>
       </c>
       <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:8">
-      <c r="A28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" t="s">
-        <v>65</v>
       </c>
       <c r="C29">
         <v>101</v>
       </c>
       <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
         <v>66</v>
-      </c>
-      <c r="E29" t="s">
-        <v>67</v>
       </c>
       <c r="F29">
         <v>10</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" t="s">
         <v>68</v>
       </c>
-      <c r="H29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33">
         <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35">
         <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35">
         <v>10</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s">
         <v>76</v>
       </c>
-      <c r="H35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36">
         <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37">
         <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38">
         <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39">
         <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -2339,136 +1756,136 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42">
         <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43">
         <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44">
         <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45">
         <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46">
         <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47">
         <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -2477,668 +1894,667 @@
         <v>7</v>
       </c>
       <c r="H47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <v>121</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51">
         <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52">
         <v>124</v>
       </c>
       <c r="D52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
         <v>95</v>
-      </c>
-      <c r="E52" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" s="3" customFormat="1" spans="1:7">
-      <c r="A53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" t="s">
-        <v>96</v>
       </c>
       <c r="C54">
         <v>125</v>
       </c>
       <c r="D54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" t="s">
         <v>97</v>
-      </c>
-      <c r="E54" t="s">
-        <v>98</v>
       </c>
       <c r="F54">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55">
         <v>126</v>
       </c>
       <c r="D55" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
         <v>100</v>
-      </c>
-      <c r="E55" t="s">
-        <v>98</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" t="s">
-        <v>101</v>
       </c>
       <c r="C56">
         <v>127</v>
       </c>
       <c r="D56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
         <v>102</v>
-      </c>
-      <c r="E56" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" t="s">
-        <v>103</v>
       </c>
       <c r="C57">
         <v>128</v>
       </c>
       <c r="D57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
         <v>104</v>
-      </c>
-      <c r="E57" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" t="s">
-        <v>105</v>
       </c>
       <c r="C58">
         <v>129</v>
       </c>
       <c r="D58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
         <v>106</v>
-      </c>
-      <c r="E58" t="s">
-        <v>98</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" t="s">
-        <v>107</v>
       </c>
       <c r="C59">
         <v>130</v>
       </c>
       <c r="D59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
         <v>108</v>
-      </c>
-      <c r="E59" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" t="s">
-        <v>109</v>
       </c>
       <c r="C60">
         <v>131</v>
       </c>
       <c r="D60" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
         <v>110</v>
-      </c>
-      <c r="E60" t="s">
-        <v>98</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" t="s">
-        <v>111</v>
       </c>
       <c r="C61">
         <v>132</v>
       </c>
       <c r="D61" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
         <v>112</v>
-      </c>
-      <c r="E61" t="s">
-        <v>98</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" t="s">
-        <v>113</v>
       </c>
       <c r="C62">
         <v>133</v>
       </c>
       <c r="D62" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
         <v>114</v>
-      </c>
-      <c r="E62" t="s">
-        <v>98</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" t="s">
-        <v>115</v>
       </c>
       <c r="C63">
         <v>134</v>
       </c>
       <c r="D63" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" t="s">
+        <v>97</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
         <v>116</v>
-      </c>
-      <c r="E63" t="s">
-        <v>98</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" t="s">
-        <v>117</v>
       </c>
       <c r="C64">
         <v>135</v>
       </c>
       <c r="D64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
         <v>118</v>
-      </c>
-      <c r="E64" t="s">
-        <v>98</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" t="s">
-        <v>119</v>
       </c>
       <c r="C65">
         <v>136</v>
       </c>
       <c r="D65" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" t="s">
+        <v>97</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
         <v>120</v>
-      </c>
-      <c r="E65" t="s">
-        <v>98</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" t="s">
-        <v>121</v>
       </c>
       <c r="C66">
         <v>137</v>
       </c>
       <c r="D66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" t="s">
+        <v>97</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
         <v>122</v>
-      </c>
-      <c r="E66" t="s">
-        <v>98</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" t="s">
-        <v>123</v>
       </c>
       <c r="C67">
         <v>138</v>
       </c>
       <c r="D67" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
         <v>124</v>
-      </c>
-      <c r="E67" t="s">
-        <v>98</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" t="s">
-        <v>125</v>
       </c>
       <c r="C68">
         <v>139</v>
       </c>
       <c r="D68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
         <v>126</v>
-      </c>
-      <c r="E68" t="s">
-        <v>98</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" t="s">
-        <v>127</v>
       </c>
       <c r="C69">
         <v>140</v>
       </c>
       <c r="D69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
         <v>128</v>
-      </c>
-      <c r="E69" t="s">
-        <v>98</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" t="s">
-        <v>129</v>
       </c>
       <c r="C70">
         <v>141</v>
       </c>
       <c r="D70" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
         <v>130</v>
-      </c>
-      <c r="E70" t="s">
-        <v>98</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" t="s">
-        <v>131</v>
       </c>
       <c r="C71">
         <v>142</v>
       </c>
       <c r="D71" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
         <v>132</v>
-      </c>
-      <c r="E71" t="s">
-        <v>98</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" t="s">
-        <v>133</v>
       </c>
       <c r="C72">
         <v>143</v>
       </c>
       <c r="D72" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
         <v>134</v>
-      </c>
-      <c r="E72" t="s">
-        <v>98</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" t="s">
-        <v>135</v>
       </c>
       <c r="C73">
         <v>144</v>
       </c>
       <c r="D73" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
         <v>136</v>
-      </c>
-      <c r="E73" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" t="s">
-        <v>137</v>
       </c>
       <c r="C74">
         <v>145</v>
       </c>
       <c r="D74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
         <v>138</v>
-      </c>
-      <c r="E74" t="s">
-        <v>98</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" t="s">
-        <v>139</v>
       </c>
       <c r="C75">
         <v>146</v>
       </c>
       <c r="D75" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" t="s">
+        <v>97</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
         <v>140</v>
-      </c>
-      <c r="E75" t="s">
-        <v>98</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" t="s">
-        <v>141</v>
       </c>
       <c r="C76">
         <v>147</v>
       </c>
       <c r="D76" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
         <v>142</v>
-      </c>
-      <c r="E76" t="s">
-        <v>98</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" t="s">
-        <v>143</v>
       </c>
       <c r="C77">
         <v>148</v>
       </c>
       <c r="D77" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" t="s">
         <v>144</v>
-      </c>
-      <c r="E77" t="s">
-        <v>145</v>
       </c>
       <c r="F77">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78">
         <v>149</v>
       </c>
       <c r="D78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F78">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
         <v>149</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5">
-      <c r="B2" t="s">
-        <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" t="s">
         <v>152</v>
       </c>
-      <c r="E2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3152,9 +2568,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3169,26 +2585,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3199,7 +2615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -3210,7 +2626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3221,85 +2637,85 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>158</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>160</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>162</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>164</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>166</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\TouhouTrek\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E36DB0-0110-4CC4-AA18-45AACD0BBA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7880BFC9-CB2E-4CC5-B40F-6AD60A8781C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="167">
   <si>
     <t>类型</t>
   </si>
@@ -937,7 +937,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1079,9 +1079,6 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -1095,7 +1092,7 @@
         <v>17</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -2253,9 +2250,6 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>14</v>
-      </c>
       <c r="B66" t="s">
         <v>120</v>
       </c>
@@ -2269,7 +2263,7 @@
         <v>97</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -2509,7 +2503,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2518,7 +2512,7 @@
   <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2581,7 +2575,7 @@
       </c>
       <c r="E4" t="str">
         <f>_xlfn.TEXTJOIN(",",1,Card!F5:F103)</f>
-        <v>10,10,10,10,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,10,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,20,20</v>
+        <v>10,10,10,10,10,10,0,0,0,0,0,10,0,0,0,0,0,0,0,10,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,20,20</v>
       </c>
     </row>
   </sheetData>
